--- a/biology/Zoologie/Charaxes_solon/Charaxes_solon.xlsx
+++ b/biology/Zoologie/Charaxes_solon/Charaxes_solon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases solon est une espèce d'insectes lépidoptères appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes qui réside en Australasie.
 </t>
@@ -511,38 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes solon a été nommé par Johan Christian Fabricius en 1793 sous le nom de Papilio solon [1]
-Sous-espèces
-Charaxes solon solon dans le sud de l'Inde.
-Synonymie pour cette sous-espèce :
-Charaxes fabius fabius (Rothschild &amp; Jordan, 1900)[2]
-Charaxes solon catulus (Fruhstorfer, 1914)[3]
-Charaxes solon cerynthus (Fruhstorfer, 1914)[3] au Sri Lanka.
-Charaxes solon cunctator (Fruhstorfer, 1914)[4] dans toute l'Indochine.
-Charaxes solon echo (Butler, 1867)[5] en Malaisie et à Bornéo.
-Synonymie pour cette sous-espèce :
-Charaxes fabius echo (Rothschild &amp; Jordan, 1898) [6]
-Charaxes solon hannibal (Butler, 1869)[7] au nord du Sulawesi.
-Synonymie pour cette sous-espèce :
-Charaxes fabius hannibal (Rothschild &amp; Jordan, 1898) [8]
-Charaxes solon jordani (Fruhstorfer, 1914)[3] au sud du Sulawesi.
-Charaxes solon lampedo (Hübner, 1823) aux Philippines.
-Synonymie pour cette sous-espèce :
-Eriboea lampedo (Hübner, 1823)[9] - protonyme
-Charaxes zephyrus (Butler, 1869)[10]
-Charaxes lampedo (Butler,1866)[11]
-Charaxes fabius lampedo (Rothschild &amp; Jordan, 1900) [12]
-Charaxes solon mangolianus (Rothschild, 1900)[13]Sula île, Indonésie[14].
-Charaxes solon orchomenus (Fruhstorfer, 1914)[3]
-Charaxes solon raidhaka (Rhé-Philipe, 1908)[15] au Bhoutan.
-Charaxes solon sumatranus (Rothschild, 1898)[16] à Sumatra.
-Charaxes solon sulphureus (Rothschild, 1900)[17] en Inde, Birmanie, en Thaïlande, au Cambodge et au Vietnam.
-Synonymie pour cette sous-espèce :
-Charaxes fabius sulphureus (Rothschild, 1900)
-Noms vernaculaires
-Il n'y a pas de nom vernaculaire en français. Il se nomme Black Rajah en anglais, Pale Black Rajah pour Charaxes solon solon et Sulphur Black Rajah pour Charaxes solon sulphureus
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes solon a été nommé par Johan Christian Fabricius en 1793 sous le nom de Papilio solon 
 </t>
         </is>
       </c>
@@ -568,16 +553,43 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charaxes solon est un grand papillon d'une envergure de 70 à 80 mm au-dessus marron avec deux queues aux ailes postérieures, une bande discale formée de grosses taches jaune clair, et une ligne submarginale de discrètes petits points jaune clair.
-Le dessous est beige argenté.
-Chenille
-La chenille est verte marquée de jaune.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charaxes solon solon dans le sud de l'Inde.
+Synonymie pour cette sous-espèce :
+Charaxes fabius fabius (Rothschild &amp; Jordan, 1900)
+Charaxes solon catulus (Fruhstorfer, 1914)
+Charaxes solon cerynthus (Fruhstorfer, 1914) au Sri Lanka.
+Charaxes solon cunctator (Fruhstorfer, 1914) dans toute l'Indochine.
+Charaxes solon echo (Butler, 1867) en Malaisie et à Bornéo.
+Synonymie pour cette sous-espèce :
+Charaxes fabius echo (Rothschild &amp; Jordan, 1898) 
+Charaxes solon hannibal (Butler, 1869) au nord du Sulawesi.
+Synonymie pour cette sous-espèce :
+Charaxes fabius hannibal (Rothschild &amp; Jordan, 1898) 
+Charaxes solon jordani (Fruhstorfer, 1914) au sud du Sulawesi.
+Charaxes solon lampedo (Hübner, 1823) aux Philippines.
+Synonymie pour cette sous-espèce :
+Eriboea lampedo (Hübner, 1823) - protonyme
+Charaxes zephyrus (Butler, 1869)
+Charaxes lampedo (Butler,1866)
+Charaxes fabius lampedo (Rothschild &amp; Jordan, 1900) 
+Charaxes solon mangolianus (Rothschild, 1900)Sula île, Indonésie.
+Charaxes solon orchomenus (Fruhstorfer, 1914)
+Charaxes solon raidhaka (Rhé-Philipe, 1908) au Bhoutan.
+Charaxes solon sumatranus (Rothschild, 1898) à Sumatra.
+Charaxes solon sulphureus (Rothschild, 1900) en Inde, Birmanie, en Thaïlande, au Cambodge et au Vietnam.
+Synonymie pour cette sous-espèce :
+Charaxes fabius sulphureus (Rothschild, 1900)</t>
         </is>
       </c>
     </row>
@@ -602,13 +614,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de la chenille sont des Tamarindus dont Tamarindus indica.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de nom vernaculaire en français. Il se nomme Black Rajah en anglais, Pale Black Rajah pour Charaxes solon solon et Sulphur Black Rajah pour Charaxes solon sulphureus
 </t>
         </is>
       </c>
@@ -634,15 +651,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes solon est un grand papillon d'une envergure de 70 à 80 mm au-dessus marron avec deux queues aux ailes postérieures, une bande discale formée de grosses taches jaune clair, et une ligne submarginale de discrètes petits points jaune clair.
+Le dessous est beige argenté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_solon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_solon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte marquée de jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes_solon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_solon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Tamarindus dont Tamarindus indica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charaxes_solon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_solon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent en Asie du Sud-Est, Inde, Sri Lanka, Birmanie ainsi qu'en Malaisie, aux Philippines, au Sulawesi, à Bornéo et Sumatra[14]
-Biotope
-Il réside habituellement en altitude jusqu'à 1 950 mètres.
-Protection</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie du Sud-Est, Inde, Sri Lanka, Birmanie ainsi qu'en Malaisie, aux Philippines, au Sulawesi, à Bornéo et Sumatra
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charaxes_solon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_solon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside habituellement en altitude jusqu'à 1 950 mètres.
+</t>
         </is>
       </c>
     </row>
